--- a/mro클래스설계.xlsx
+++ b/mro클래스설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chl\Desktop\springworkspace\Mro_Platform\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826923E-5643-4BC7-A733-26D4F7FBD026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F30F09-2ADA-48C9-868C-C231576C9B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLASS" sheetId="5" r:id="rId1"/>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="126">
   <si>
     <t>MODULE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1324,6 +1324,10 @@
   </si>
   <si>
     <t>bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1449,7 +1453,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1462,6 +1466,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="56">
     <border>
@@ -2194,7 +2204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2509,6 +2519,9 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2856,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -3567,7 +3580,9 @@
       <c r="F30" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="47"/>
+      <c r="G30" s="105" t="s">
+        <v>125</v>
+      </c>
       <c r="H30" s="48"/>
       <c r="I30" s="47"/>
       <c r="J30" s="49"/>
